--- a/songsbyyear.xlsx
+++ b/songsbyyear.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scottwhi\Git Repositories\Rock1500\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repositories\Rock1500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E47D92-9B7E-4DFF-A080-E311A27DDAB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{78309721-BC43-4B92-844A-230EA12133EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -41,11 +40,17 @@
   <si>
     <t>Cumulative</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,6 +139,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -390,133 +396,133 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="45">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>21</c:v>
@@ -525,31 +531,31 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>23</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,166 +803,166 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>174</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>210</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>218</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>240</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>262</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>286</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>302</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>319</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>353</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>375</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>394</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>411</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>451</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>482</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>512</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>562</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>602</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>639</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>666</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>698</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>721</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>753</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>785</c:v>
+                  <c:v>936</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>820</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>846</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>872</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>906</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>936</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>958</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>977</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>998</c:v>
+                  <c:v>1181</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1011</c:v>
+                  <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1029</c:v>
+                  <c:v>1217</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1042</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1059</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1082</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1097</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1124</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1152</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1173</c:v>
+                  <c:v>1389</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1189</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,6 +995,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1036,7 +1043,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1056,6 +1063,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="378902912"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1108,6 +1116,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1205,6 +1214,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1281,6 +1291,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="389152176"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1296,6 +1307,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1327,6 +1339,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1334,7 +1347,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2262,11 +2274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EBA277-9824-4B94-967C-88279D7157D4}">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2287,7 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1964</v>
       </c>
@@ -2309,8 +2321,14 @@
         <f>C2+B3</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1965</v>
       </c>
@@ -2321,20 +2339,32 @@
         <f t="shared" ref="C4:C58" si="0">C3+B4</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1966</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>1964</v>
+      </c>
+      <c r="AC5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1967</v>
       </c>
@@ -2343,82 +2373,124 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AB6">
+        <v>1965</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1968</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AB7">
+        <v>1966</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1969</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AB8">
+        <v>1967</v>
+      </c>
+      <c r="AC8">
         <v>9</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1970</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="AB9">
+        <v>1968</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1971</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="AB10">
+        <v>1969</v>
+      </c>
+      <c r="AC10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1972</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="AB11">
+        <v>1970</v>
+      </c>
+      <c r="AC11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1973</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="AB12">
+        <v>1971</v>
+      </c>
+      <c r="AC12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1974</v>
       </c>
@@ -2427,418 +2499,628 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="AB13">
+        <v>1972</v>
+      </c>
+      <c r="AC13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1975</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="AB14">
+        <v>1973</v>
+      </c>
+      <c r="AC14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1976</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AB15">
+        <v>1974</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1977</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="AB16">
+        <v>1975</v>
+      </c>
+      <c r="AC16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1978</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="AB17">
+        <v>1976</v>
+      </c>
+      <c r="AC17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1979</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="AB18">
+        <v>1977</v>
+      </c>
+      <c r="AC18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1980</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="AB19">
+        <v>1978</v>
+      </c>
+      <c r="AC19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1981</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="AB20">
+        <v>1979</v>
+      </c>
+      <c r="AC20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1982</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="AB21">
+        <v>1980</v>
+      </c>
+      <c r="AC21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1983</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="AB22">
+        <v>1981</v>
+      </c>
+      <c r="AC22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1984</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="AB23">
+        <v>1982</v>
+      </c>
+      <c r="AC23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1985</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AB24">
+        <v>1983</v>
+      </c>
+      <c r="AC24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1986</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="AB25">
+        <v>1984</v>
+      </c>
+      <c r="AC25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1987</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="AB26">
+        <v>1985</v>
+      </c>
+      <c r="AC26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1988</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="AB27">
+        <v>1986</v>
+      </c>
+      <c r="AC27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1989</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="AB28">
+        <v>1987</v>
+      </c>
+      <c r="AC28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1990</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="AB29">
+        <v>1988</v>
+      </c>
+      <c r="AC29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1991</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="AB30">
+        <v>1989</v>
+      </c>
+      <c r="AC30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1992</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="AB31">
+        <v>1990</v>
+      </c>
+      <c r="AC31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1993</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="AB32">
+        <v>1991</v>
+      </c>
+      <c r="AC32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1994</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>562</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+      <c r="AB33">
+        <v>1992</v>
+      </c>
+      <c r="AC33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1995</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="AB34">
+        <v>1993</v>
+      </c>
+      <c r="AC34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1996</v>
       </c>
       <c r="B35">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+      <c r="AB35">
+        <v>1994</v>
+      </c>
+      <c r="AC35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1997</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="AB36">
+        <v>1995</v>
+      </c>
+      <c r="AC36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1998</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="AB37">
+        <v>1996</v>
+      </c>
+      <c r="AC37">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1999</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>721</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="AB38">
+        <v>1997</v>
+      </c>
+      <c r="AC38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2000</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="AB39">
+        <v>1998</v>
+      </c>
+      <c r="AC39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2001</v>
       </c>
       <c r="B40">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="AB40">
+        <v>1999</v>
+      </c>
+      <c r="AC40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2002</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>820</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="AB41">
+        <v>2000</v>
+      </c>
+      <c r="AC41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2003</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>846</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+      <c r="AB42">
+        <v>2001</v>
+      </c>
+      <c r="AC42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2004</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+      <c r="AB43">
+        <v>2002</v>
+      </c>
+      <c r="AC43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2005</v>
       </c>
       <c r="B44">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+      <c r="AB44">
+        <v>2003</v>
+      </c>
+      <c r="AC44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2006</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>936</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+      <c r="AB45">
+        <v>2004</v>
+      </c>
+      <c r="AC45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2007</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>958</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+      <c r="AB46">
+        <v>2005</v>
+      </c>
+      <c r="AC46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2008</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>977</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+      <c r="AB47">
+        <v>2006</v>
+      </c>
+      <c r="AC47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2009</v>
       </c>
@@ -2847,10 +3129,16 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+      <c r="AB48">
+        <v>2007</v>
+      </c>
+      <c r="AC48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -2859,22 +3147,34 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+      <c r="AB49">
+        <v>2008</v>
+      </c>
+      <c r="AC49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+      <c r="AB50">
+        <v>2009</v>
+      </c>
+      <c r="AC50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2012</v>
       </c>
@@ -2883,91 +3183,155 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1230</v>
+      </c>
+      <c r="AB51">
+        <v>2010</v>
+      </c>
+      <c r="AC51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2013</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+      <c r="AB52">
+        <v>2011</v>
+      </c>
+      <c r="AC52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2014</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+      <c r="AB53">
+        <v>2012</v>
+      </c>
+      <c r="AC53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2015</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+      <c r="AB54">
+        <v>2013</v>
+      </c>
+      <c r="AC54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2016</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+      <c r="AB55">
+        <v>2014</v>
+      </c>
+      <c r="AC55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2017</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+      <c r="AB56">
+        <v>2015</v>
+      </c>
+      <c r="AC56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2018</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+      <c r="AB57">
+        <v>2016</v>
+      </c>
+      <c r="AC57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1189</v>
+        <v>1410</v>
+      </c>
+      <c r="AB58">
+        <v>2017</v>
+      </c>
+      <c r="AC58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB59">
+        <v>2018</v>
+      </c>
+      <c r="AC59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB60">
+        <v>2019</v>
+      </c>
+      <c r="AC60">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
